--- a/Математика/мат.xlsx
+++ b/Математика/мат.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>d_30</t>
+    <t>y_2</t>
   </si>
 </sst>
 </file>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,72 +380,72 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -455,47 +455,47 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -505,12 +505,12 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -520,22 +520,22 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -545,337 +545,287 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
